--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistemas\EnviarCorreoMasivoCon-PHP-mySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0DC564-6B04-4421-94DA-687EBFE040A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68E372-8F80-45AB-9CF4-8FF1CBC98CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>cliente</t>
   </si>
@@ -44,10 +44,205 @@
     <t>id</t>
   </si>
   <si>
-    <t>HOLA</t>
-  </si>
-  <si>
-    <t>holi@gmail.com</t>
+    <t>Ph.D. Dulio Oseda Gago</t>
+  </si>
+  <si>
+    <t>Dr. Roger Hernando Peña Huamán</t>
+  </si>
+  <si>
+    <t>Dr. Filiberto Fernando Ochoa Paredes</t>
+  </si>
+  <si>
+    <t>Sheyla Ibeth Arias Luyo</t>
+  </si>
+  <si>
+    <t>Adler Stalin Rivera Centeno</t>
+  </si>
+  <si>
+    <t>Virginia Patricia Díaz Condor</t>
+  </si>
+  <si>
+    <t>Manuel Nicolás Morales Alberto</t>
+  </si>
+  <si>
+    <t>Ramón Osorio Alberto Bueno</t>
+  </si>
+  <si>
+    <t>Yrene Cecilia Uribe Hernández</t>
+  </si>
+  <si>
+    <t>Nelsi Rosario Tacsa Torres</t>
+  </si>
+  <si>
+    <t>Roberto Mañuico Mendoza</t>
+  </si>
+  <si>
+    <t>Oscar Adrian Zapillado Huanco</t>
+  </si>
+  <si>
+    <t>Yajaira Lizeth Carrasco Vega</t>
+  </si>
+  <si>
+    <t>Pedro Andrés García Morán</t>
+  </si>
+  <si>
+    <t>Daniela Helibeth Laura Mallasca</t>
+  </si>
+  <si>
+    <t>Katherine Xiomara Hernández Gómez</t>
+  </si>
+  <si>
+    <t>Víctor Carmelino Vargas Godoy</t>
+  </si>
+  <si>
+    <t>Julio Wu Matta</t>
+  </si>
+  <si>
+    <t>Filiberto Fernando Ochoa Paredes</t>
+  </si>
+  <si>
+    <t>Ingrid Rocio Poma Bautista</t>
+  </si>
+  <si>
+    <t>Rosa Fernanda Peña Lock</t>
+  </si>
+  <si>
+    <t>Lizbeth Diana Lévano Sánchez</t>
+  </si>
+  <si>
+    <t>Miriam Viviana Ñañez Silva</t>
+  </si>
+  <si>
+    <t>Yolanda Aroquipa Durán</t>
+  </si>
+  <si>
+    <t>Gladys Montalico Ruiz</t>
+  </si>
+  <si>
+    <t>Roberto Coaquira Incacari</t>
+  </si>
+  <si>
+    <t>Juan Saldivar Villarroel</t>
+  </si>
+  <si>
+    <t>Marcos Benito Parraguez Carraco</t>
+  </si>
+  <si>
+    <t>Aliske Godoy Vilca</t>
+  </si>
+  <si>
+    <t>Rosaly Eveling Salazar Paucar</t>
+  </si>
+  <si>
+    <t>Juan Pablo Cordova Laura</t>
+  </si>
+  <si>
+    <t>Yudith Margoth Aburto Zapata</t>
+  </si>
+  <si>
+    <t>Hussein Anthony Palomino Quispe</t>
+  </si>
+  <si>
+    <t>Erika Lizeth Arias Luyo</t>
+  </si>
+  <si>
+    <t>dosedag@gmail.com</t>
+  </si>
+  <si>
+    <t>rpena@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>fochoa@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>sarias@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>sthalin.11@gmail.com</t>
+  </si>
+  <si>
+    <t>pdiaz@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>mmorales@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>ralberto@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>yuribe@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>1940147386@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>rmanuico@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>ozapillado@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>ycarrasco@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2101030144@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2201020182@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2101010169@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>vvargas@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>jwu@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>ipoma@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2201010252@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>1842051915@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>mnanez@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>yaroquipa@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>45010512@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>rcoaquira@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>jsaldivar@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>mparraguez@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>1971018307@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2002010210@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>2201010089@undc.esu.pe</t>
+  </si>
+  <si>
+    <t>2101010003@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>hpalomino@undc.edu.pe</t>
+  </si>
+  <si>
+    <t>1773963097@undc.edu.pe</t>
   </si>
 </sst>
 </file>
@@ -404,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -449,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -463,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -477,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -491,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -505,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -519,10 +714,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -533,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -547,29 +742,382 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{508FDC5B-AA1C-4162-A8D8-A2F9D13AA062}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{19AD19C9-ECB7-4C75-A4B2-2910CBDBF0FB}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{145C0151-CECC-4402-B409-CCCA2FED158E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{2B98DD40-D0E1-458A-BAA2-D136B3A32725}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{4341BB70-AD92-4C6B-A148-0B497D2B946F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{5398F39D-41E2-44D7-B8A8-44C835AC8ACC}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{93B16488-39A4-45C5-8A1B-F2582134B166}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{62E6CD76-AAC9-4F55-8DE2-DBCD6020DA25}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{E4265803-B163-4F20-8B8B-8405601C1F62}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>